--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_11_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_11_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3206544.25654314</v>
+        <v>3204167.629595774</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8298028.653952288</v>
+        <v>8298028.65395229</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>72.94942429078201</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>85.44683811067752</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,16 +823,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>77.27614072340543</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>129.3493900756563</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,13 +896,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>82.78267808229644</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -914,7 +914,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>96.45595111804448</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>14.29880131109824</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
@@ -1114,7 +1114,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>183.5075633549398</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>196.6997841156775</v>
+        <v>215.1445980039596</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>43.38105623675333</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>50.98074812542793</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1531,10 +1531,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>149.86544265726</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1771,16 +1771,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>14.92158678358339</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1850,13 +1850,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2008,16 +2008,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>40.53421095546916</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>116.4636264596503</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>75.55208621972962</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,13 +2953,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>104.8913819999782</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>92.58181139165768</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>48.85497112745813</v>
       </c>
       <c r="D34" t="n">
-        <v>78.9105100867805</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,10 +3424,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>123.9815576456779</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>94.05355358057989</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>141.4513012076587</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>110.0177171766856</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>123.9815576456784</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>139.5115415340516</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1287.435190625613</v>
+        <v>844.329830759459</v>
       </c>
       <c r="C2" t="n">
-        <v>918.472673685201</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>560.2069750784506</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>560.2069750784506</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>149.221070288843</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>137.556724053536</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
@@ -4331,10 +4331,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4358,22 +4358,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2437.640120926626</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2437.640120926626</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2437.640120926626</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>2064.174362665546</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="Y2" t="n">
-        <v>1674.035030689734</v>
+        <v>918.0161179218651</v>
       </c>
     </row>
     <row r="3">
@@ -4395,34 +4395,34 @@
         <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>614.543024838023</v>
+        <v>299.2648838844856</v>
       </c>
       <c r="L3" t="n">
-        <v>909.2465818694948</v>
+        <v>593.9684409159572</v>
       </c>
       <c r="M3" t="n">
-        <v>1272.508600828715</v>
+        <v>957.2304598751772</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.79372942566</v>
+        <v>1344.515588472122</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601822</v>
+        <v>1676.586023648284</v>
       </c>
       <c r="P3" t="n">
         <v>2239.046898434119</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>662.7751904765217</v>
+        <v>297.2899590611441</v>
       </c>
       <c r="C4" t="n">
-        <v>662.7751904765217</v>
+        <v>297.2899590611441</v>
       </c>
       <c r="D4" t="n">
-        <v>662.7751904765217</v>
+        <v>297.2899590611441</v>
       </c>
       <c r="E4" t="n">
-        <v>514.8620968941286</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F4" t="n">
-        <v>367.9721493962183</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
         <v>51.24678656800311</v>
@@ -4486,52 +4486,52 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T4" t="n">
-        <v>1206.578016178571</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>917.4596786824086</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="V4" t="n">
-        <v>662.7751904765217</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="W4" t="n">
-        <v>662.7751904765217</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="X4" t="n">
-        <v>662.7751904765217</v>
+        <v>699.731003034914</v>
       </c>
       <c r="Y4" t="n">
-        <v>662.7751904765217</v>
+        <v>478.9384238913839</v>
       </c>
     </row>
     <row r="5">
@@ -4541,49 +4541,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1101.143993102105</v>
+        <v>909.6965460670935</v>
       </c>
       <c r="C5" t="n">
-        <v>732.1814761616938</v>
+        <v>826.0776793172992</v>
       </c>
       <c r="D5" t="n">
-        <v>373.9157775549433</v>
+        <v>826.0776793172992</v>
       </c>
       <c r="E5" t="n">
-        <v>373.9157775549433</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F5" t="n">
-        <v>366.9702768057398</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362826</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816093</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872914</v>
+        <v>795.7553530872929</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
         <v>2542.25058172385</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.313418796629</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V5" t="n">
-        <v>1975.313418796629</v>
+        <v>2022.530799662409</v>
       </c>
       <c r="W5" t="n">
-        <v>1877.883165142039</v>
+        <v>1669.762144392295</v>
       </c>
       <c r="X5" t="n">
-        <v>1877.883165142039</v>
+        <v>1296.296386131215</v>
       </c>
       <c r="Y5" t="n">
-        <v>1487.743833166227</v>
+        <v>1296.296386131215</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380226</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>932.4978103100998</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>157.1019332386098</v>
+        <v>383.7931243196342</v>
       </c>
       <c r="C7" t="n">
-        <v>157.1019332386098</v>
+        <v>383.7931243196342</v>
       </c>
       <c r="D7" t="n">
-        <v>157.1019332386098</v>
+        <v>233.6764849072985</v>
       </c>
       <c r="E7" t="n">
-        <v>157.1019332386098</v>
+        <v>233.6764849072985</v>
       </c>
       <c r="F7" t="n">
-        <v>157.1019332386098</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
         <v>76.71595955312198</v>
@@ -4738,10 +4738,10 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4750,25 +4750,25 @@
         <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T7" t="n">
-        <v>1114.255484944676</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="U7" t="n">
-        <v>825.1371474485138</v>
+        <v>1048.115628253778</v>
       </c>
       <c r="V7" t="n">
-        <v>570.452659242627</v>
+        <v>793.4311400478913</v>
       </c>
       <c r="W7" t="n">
-        <v>385.0914841366271</v>
+        <v>793.4311400478913</v>
       </c>
       <c r="X7" t="n">
-        <v>157.1019332386098</v>
+        <v>565.4415891498739</v>
       </c>
       <c r="Y7" t="n">
-        <v>157.1019332386098</v>
+        <v>565.4415891498739</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1785.600156360221</v>
+        <v>1445.965582893149</v>
       </c>
       <c r="C8" t="n">
-        <v>1416.637639419809</v>
+        <v>1077.003065952737</v>
       </c>
       <c r="D8" t="n">
-        <v>1058.371940813058</v>
+        <v>1077.003065952737</v>
       </c>
       <c r="E8" t="n">
-        <v>672.5836882148142</v>
+        <v>691.2148133544931</v>
       </c>
       <c r="F8" t="n">
-        <v>261.5977834252066</v>
+        <v>684.2693126052897</v>
       </c>
       <c r="G8" t="n">
-        <v>249.9334371898996</v>
+        <v>268.5645623295785</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
         <v>795.7553530872913</v>
@@ -4814,40 +4814,40 @@
         <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400154</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="X8" t="n">
-        <v>2562.339328400154</v>
+        <v>1836.104914868961</v>
       </c>
       <c r="Y8" t="n">
-        <v>2172.199996424342</v>
+        <v>1445.965582893149</v>
       </c>
     </row>
     <row r="9">
@@ -4878,31 +4878,31 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.427330237016</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>614.543024838023</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694947</v>
+        <v>1092.885047004312</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828715</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>716.5983551657491</v>
+        <v>349.6600800990968</v>
       </c>
       <c r="C10" t="n">
-        <v>547.6621722378422</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="D10" t="n">
-        <v>397.5455328255065</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="E10" t="n">
-        <v>249.6324392431134</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="F10" t="n">
-        <v>102.742491745203</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800308</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800308</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312193</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4975,37 +4975,37 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>825.1371474485138</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>570.452659242627</v>
       </c>
       <c r="W10" t="n">
-        <v>1347.028950037536</v>
+        <v>570.452659242627</v>
       </c>
       <c r="X10" t="n">
-        <v>1119.039399139519</v>
+        <v>570.452659242627</v>
       </c>
       <c r="Y10" t="n">
-        <v>898.2468199959889</v>
+        <v>349.6600800990968</v>
       </c>
     </row>
     <row r="11">
@@ -5039,28 +5039,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5118,28 +5118,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245706</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>738.7889117913851</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>810.0653816078141</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>641.1291986799072</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>491.0125592675714</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5200,10 +5200,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5227,22 +5227,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2045.683310480234</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1756.608083824432</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1501.923595618545</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1212.506425581584</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1212.506425581584</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>991.7138464380538</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,25 +5273,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>417.7969033733013</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5479,7 +5479,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="17">
@@ -5498,10 +5498,10 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,7 +5510,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
@@ -5522,16 +5522,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5592,25 +5592,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5656,13 +5656,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5732,10 +5732,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5744,25 +5744,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5887,22 +5887,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5966,37 +5966,37 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
@@ -6008,19 +6008,19 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,10 +6236,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="29">
@@ -6449,34 +6449,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="C31" t="n">
-        <v>513.8536007400712</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D31" t="n">
-        <v>513.8536007400712</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>822.7776635101469</v>
       </c>
     </row>
     <row r="32">
@@ -6680,40 +6680,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>564.5188827892232</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>184.7035232280583</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>184.7035232280583</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>639.6425904082686</v>
       </c>
       <c r="C37" t="n">
-        <v>513.8536007400712</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>821.2910552385083</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,28 +7169,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1184.258927726996</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>963.466348583466</v>
       </c>
     </row>
     <row r="41">
@@ -7403,28 +7403,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>244.2098454714573</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>365.9405071576786</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>219.0505596597682</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>219.0505596597682</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7646,13 +7646,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
         <v>2206.55866301478</v>
@@ -7731,10 +7731,10 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>579.1554649516142</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7843,13 +7843,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>193.3273467878353</v>
+        <v>0.9556134883073923</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878349</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,16 +8307,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>186.5911984019043</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878355</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>240.4465442417436</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154992</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9887,10 +9887,10 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10364,7 +10364,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -23419,10 +23419,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23434,7 +23434,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>67.54000767002825</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23659,16 +23659,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>130.4994612393479</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23896,16 +23896,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>105.8997516911</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24361,16 +24361,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>32.15184655856208</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>210.9709121168614</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24841,13 +24841,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>41.54258064659096</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>126.0028419604371</v>
       </c>
     </row>
     <row r="32">
@@ -25075,19 +25075,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>118.3918499711697</v>
       </c>
       <c r="D34" t="n">
-        <v>69.70496293143185</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25312,10 +25312,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.63391537253442</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>124.5310997715149</v>
       </c>
     </row>
     <row r="38">
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>84.25835418137842</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>57.22910392194228</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>16.31315520054551</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26020,13 +26020,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>40.32043864788571</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26035,7 +26035,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>712962.6583438909</v>
+        <v>712962.658343891</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>712962.658343891</v>
+        <v>712962.6583438909</v>
       </c>
     </row>
     <row r="10">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>712962.6583438909</v>
+        <v>712962.658343891</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312482</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="D2" t="n">
         <v>718411.5486312482</v>
       </c>
       <c r="E2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="F2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287551</v>
       </c>
       <c r="G2" t="n">
         <v>706253.2747287555</v>
       </c>
       <c r="H2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="I2" t="n">
-        <v>706253.2747287551</v>
+        <v>706253.2747287552</v>
       </c>
       <c r="J2" t="n">
-        <v>706253.2747287551</v>
+        <v>706253.274728755</v>
       </c>
       <c r="K2" t="n">
         <v>706253.2747287556</v>
       </c>
       <c r="L2" t="n">
+        <v>706253.2747287551</v>
+      </c>
+      <c r="M2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="N2" t="n">
+        <v>706253.2747287552</v>
+      </c>
+      <c r="O2" t="n">
+        <v>706253.2747287557</v>
+      </c>
+      <c r="P2" t="n">
         <v>706253.2747287556</v>
-      </c>
-      <c r="M2" t="n">
-        <v>706253.2747287557</v>
-      </c>
-      <c r="N2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="O2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="P2" t="n">
-        <v>706253.2747287557</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245461</v>
+        <v>507485.4416245456</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
         <v>167605.1778099825</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>133113.8635467444</v>
+      </c>
+      <c r="C4" t="n">
         <v>133113.8635467443</v>
-      </c>
-      <c r="C4" t="n">
-        <v>133113.8635467444</v>
       </c>
       <c r="D4" t="n">
         <v>133113.8635467444</v>
       </c>
       <c r="E4" t="n">
+        <v>7507.36846171966</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7507.3684617197</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7507.36846171969</v>
+      </c>
+      <c r="H4" t="n">
         <v>7507.368461719667</v>
       </c>
-      <c r="F4" t="n">
+      <c r="I4" t="n">
+        <v>7507.368461719619</v>
+      </c>
+      <c r="J4" t="n">
+        <v>7507.368461719643</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7507.368461719668</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7507.368461719643</v>
+      </c>
+      <c r="M4" t="n">
         <v>7507.36846171969</v>
       </c>
-      <c r="G4" t="n">
-        <v>7507.368461719685</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7507.36846171969</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7507.368461719676</v>
-      </c>
-      <c r="J4" t="n">
-        <v>7507.368461719672</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="N4" t="n">
+        <v>7507.36846171967</v>
+      </c>
+      <c r="O4" t="n">
         <v>7507.368461719667</v>
-      </c>
-      <c r="L4" t="n">
-        <v>7507.36846171969</v>
-      </c>
-      <c r="M4" t="n">
-        <v>7507.368461719667</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7507.368461719667</v>
-      </c>
-      <c r="O4" t="n">
-        <v>7507.368461719668</v>
       </c>
       <c r="P4" t="n">
         <v>7507.368461719667</v>
@@ -26473,7 +26473,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984469</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-622391.8709312605</v>
+        <v>-622391.8709312606</v>
       </c>
       <c r="C6" t="n">
-        <v>492359.9126446589</v>
+        <v>492359.9126446588</v>
       </c>
       <c r="D6" t="n">
-        <v>492359.9126446594</v>
+        <v>492359.9126446592</v>
       </c>
       <c r="E6" t="n">
-        <v>90137.93481858251</v>
+        <v>90103.19689314741</v>
       </c>
       <c r="F6" t="n">
-        <v>597623.3764431287</v>
+        <v>597588.6385176925</v>
       </c>
       <c r="G6" t="n">
-        <v>597623.3764431287</v>
+        <v>597588.638517693</v>
       </c>
       <c r="H6" t="n">
-        <v>597623.3764431286</v>
+        <v>597588.638517693</v>
       </c>
       <c r="I6" t="n">
-        <v>597623.3764431283</v>
+        <v>597588.6385176927</v>
       </c>
       <c r="J6" t="n">
-        <v>430018.1986331457</v>
+        <v>429983.46070771</v>
       </c>
       <c r="K6" t="n">
-        <v>597623.3764431288</v>
+        <v>597588.6385176932</v>
       </c>
       <c r="L6" t="n">
-        <v>597623.3764431288</v>
+        <v>597588.6385176928</v>
       </c>
       <c r="M6" t="n">
-        <v>465016.0827142021</v>
+        <v>464981.3447887662</v>
       </c>
       <c r="N6" t="n">
-        <v>597623.3764431287</v>
+        <v>597588.6385176928</v>
       </c>
       <c r="O6" t="n">
-        <v>597623.3764431286</v>
+        <v>597588.6385176933</v>
       </c>
       <c r="P6" t="n">
-        <v>597623.3764431289</v>
+        <v>597588.6385176933</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175391</v>
+      </c>
+      <c r="C3" t="n">
+        <v>934.0648921175391</v>
+      </c>
+      <c r="D3" t="n">
         <v>934.0648921175392</v>
-      </c>
-      <c r="C3" t="n">
-        <v>934.0648921175392</v>
-      </c>
-      <c r="D3" t="n">
-        <v>934.064892117539</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26790,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="D4" t="n">
         <v>640.5848321000387</v>
-      </c>
-      <c r="D4" t="n">
-        <v>640.5848321000385</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26808,7 +26808,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241348</v>
+        <v>433.9106082241343</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>309.7844173726986</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>215.5717144517279</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,16 +27543,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>69.15782192316374</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>91.39930592155565</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,13 +27616,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>282.4902136887111</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>252.7850175993685</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>131.122246711833</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,7 +27825,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,7 +27834,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>103.0154349816512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>104.3187684467279</v>
+        <v>85.87395455844575</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247052</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27913,10 +27913,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>123.8657648618745</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>115.3258519193762</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28330,16 +28330,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
         <v>5.115907697472721e-13</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28570,13 +28570,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31042,43 +31042,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,7 +31133,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31142,25 +31142,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31233,13 +31233,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31279,43 +31279,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31370,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31379,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31470,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,46 +31516,46 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336177</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342222</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745095</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347159</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178437</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040587</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.538811676207</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405673</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378624</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654578</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31686,16 +31686,16 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227907</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849626</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759584</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.19689343106956</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,37 +31838,37 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>671.2522281007823</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32072,16 +32072,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32093,13 +32093,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.6580975439405</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32312,13 +32312,13 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,13 +32327,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32549,13 +32549,13 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32567,13 +32567,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32789,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>233.9389431948329</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>242.2322097768135</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33181,34 +33181,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>485.1127032082907</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>244.0266243181827</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>218.6425359394812</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>167.4835451665585</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>287.9685048518522</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>364.3208035245835</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34451,13 +34451,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M45" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,16 +34775,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>379.9148430313201</v>
+        <v>187.5431097317922</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
@@ -34793,10 +34793,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34866,7 +34866,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34875,7 +34875,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313197</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>522.0158803980272</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35103,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35112,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407336</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376313</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939898</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313202</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>538.1269048795938</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928738</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961229</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870591</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468032</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818071</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>528.6559836563379</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35668,7 +35668,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,16 +35720,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35741,13 +35741,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,13 +35975,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36215,13 +36215,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281453</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>103.6778299969394</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>342.5164587638463</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>101.8925903961643</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>91.80490927281453</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>25.34951124454015</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>150.1270658774932</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>224.339029438562</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38099,13 +38099,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M45" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
